--- a/data/szavak.xlsx
+++ b/data/szavak.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\alkalmazásaim\szószedet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E989834F-B93B-4066-8A31-652F2BD9D642}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91C000B-2C4C-4437-97B9-5133A4B60A9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="8916" activeTab="2" xr2:uid="{E6ED681C-CEEF-4325-8AAC-6357EF08A3E8}"/>
   </bookViews>

--- a/data/szavak.xlsx
+++ b/data/szavak.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\alkalmazásaim\szószedet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91C000B-2C4C-4437-97B9-5133A4B60A9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D4EB16-8D01-44F1-AF18-554A1F83A261}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="8916" activeTab="2" xr2:uid="{E6ED681C-CEEF-4325-8AAC-6357EF08A3E8}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="87">
   <si>
     <t>Lecke</t>
   </si>
@@ -91,9 +91,6 @@
     <t>3a</t>
   </si>
   <si>
-    <t>answer to phone</t>
-  </si>
-  <si>
     <t>felveszi a telefont</t>
   </si>
   <si>
@@ -242,6 +239,57 @@
   </si>
   <si>
     <t>Kár</t>
+  </si>
+  <si>
+    <t>do jigsaw a puzzle</t>
+  </si>
+  <si>
+    <t>kirakóssal játszik</t>
+  </si>
+  <si>
+    <t>answer the phone</t>
+  </si>
+  <si>
+    <t>do karate</t>
+  </si>
+  <si>
+    <t>karatézik</t>
+  </si>
+  <si>
+    <t>go bowling</t>
+  </si>
+  <si>
+    <t>bowlingozni megy</t>
+  </si>
+  <si>
+    <t>go go-kart racing</t>
+  </si>
+  <si>
+    <t>go-kart versenyre megy</t>
+  </si>
+  <si>
+    <t>go ice skating</t>
+  </si>
+  <si>
+    <t>korcsolyázik</t>
+  </si>
+  <si>
+    <t>let's have fun</t>
+  </si>
+  <si>
+    <t>Szórakozzunk/ érezzük jól magunkat</t>
+  </si>
+  <si>
+    <t>indoor</t>
+  </si>
+  <si>
+    <t>beltéri</t>
+  </si>
+  <si>
+    <t>outdoor</t>
+  </si>
+  <si>
+    <t>kültéri</t>
   </si>
 </sst>
 </file>
@@ -739,10 +787,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15400D6-8F26-4BDF-8F2A-A84DB8BE5864}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -768,10 +816,10 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -779,10 +827,10 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -790,10 +838,10 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -801,10 +849,10 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -812,10 +860,10 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
         <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -823,10 +871,10 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
         <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -834,10 +882,10 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
         <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -845,10 +893,10 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
         <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -856,10 +904,10 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
         <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -867,10 +915,10 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
         <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -878,10 +926,10 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
         <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -889,10 +937,10 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
         <v>42</v>
-      </c>
-      <c r="C13" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -900,10 +948,10 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
         <v>44</v>
-      </c>
-      <c r="C14" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -911,10 +959,10 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
         <v>46</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -922,10 +970,10 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -933,10 +981,10 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
         <v>49</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -944,10 +992,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
         <v>51</v>
-      </c>
-      <c r="C18" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -955,10 +1003,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
         <v>53</v>
-      </c>
-      <c r="C19" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -966,10 +1014,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
         <v>55</v>
-      </c>
-      <c r="C20" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -977,10 +1025,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" t="s">
         <v>57</v>
-      </c>
-      <c r="C21" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -988,10 +1036,10 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s">
         <v>59</v>
-      </c>
-      <c r="C22" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -999,10 +1047,10 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
         <v>61</v>
-      </c>
-      <c r="C23" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -1010,10 +1058,10 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
         <v>63</v>
-      </c>
-      <c r="C24" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -1021,10 +1069,10 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
         <v>65</v>
-      </c>
-      <c r="C25" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -1032,10 +1080,10 @@
         <v>19</v>
       </c>
       <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
         <v>67</v>
-      </c>
-      <c r="C26" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -1043,10 +1091,98 @@
         <v>19</v>
       </c>
       <c r="B27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" t="s">
         <v>69</v>
       </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
         <v>70</v>
+      </c>
+      <c r="C28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/data/szavak.xlsx
+++ b/data/szavak.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\alkalmazásaim\szószedet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D4EB16-8D01-44F1-AF18-554A1F83A261}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F54CB8-47E1-4357-8AC8-C7B1B2808854}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="8916" activeTab="2" xr2:uid="{E6ED681C-CEEF-4325-8AAC-6357EF08A3E8}"/>
   </bookViews>
@@ -241,9 +241,6 @@
     <t>Kár</t>
   </si>
   <si>
-    <t>do jigsaw a puzzle</t>
-  </si>
-  <si>
     <t>kirakóssal játszik</t>
   </si>
   <si>
@@ -290,6 +287,9 @@
   </si>
   <si>
     <t>kültéri</t>
+  </si>
+  <si>
+    <t>do jigsaw puzzles</t>
   </si>
 </sst>
 </file>
@@ -790,7 +790,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -816,7 +816,7 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
@@ -1102,10 +1102,10 @@
         <v>19</v>
       </c>
       <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" t="s">
         <v>70</v>
-      </c>
-      <c r="C28" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1113,10 +1113,10 @@
         <v>19</v>
       </c>
       <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s">
         <v>73</v>
-      </c>
-      <c r="C29" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1124,10 +1124,10 @@
         <v>19</v>
       </c>
       <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" t="s">
         <v>75</v>
-      </c>
-      <c r="C30" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1135,10 +1135,10 @@
         <v>19</v>
       </c>
       <c r="B31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" t="s">
         <v>77</v>
-      </c>
-      <c r="C31" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1146,10 +1146,10 @@
         <v>19</v>
       </c>
       <c r="B32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" t="s">
         <v>79</v>
-      </c>
-      <c r="C32" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1157,10 +1157,10 @@
         <v>19</v>
       </c>
       <c r="B33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" t="s">
         <v>81</v>
-      </c>
-      <c r="C33" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1168,10 +1168,10 @@
         <v>19</v>
       </c>
       <c r="B34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" t="s">
         <v>83</v>
-      </c>
-      <c r="C34" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1179,10 +1179,10 @@
         <v>19</v>
       </c>
       <c r="B35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" t="s">
         <v>85</v>
-      </c>
-      <c r="C35" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
